--- a/Tone Screening/ToneCFParameters_For_Generation.xlsx
+++ b/Tone Screening/ToneCFParameters_For_Generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ratNeuroPixel\ClickTrainGeneration\Tone Screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2AC03-C0D7-4C09-B869-18D95EE07326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6806EAF-9584-4927-B9AE-5306F2E305BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>double</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,10,20,30,40,50,60</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -112,6 +108,30 @@
   </si>
   <si>
     <t>Noise</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230316</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10,0,10,20,30,40,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Noise_DiffAtt_Gen</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +510,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,7 +525,9 @@
     <col min="9" max="10" width="17.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
     <col min="12" max="12" width="45.77734375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="21.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -516,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -543,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>11</v>
@@ -560,10 +582,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -587,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>13</v>
@@ -604,10 +626,10 @@
         <v>384000</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>500</v>
@@ -631,13 +653,13 @@
         <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -648,15 +670,32 @@
         <v>384000</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>

--- a/Tone Screening/ToneCFParameters_For_Generation.xlsx
+++ b/Tone Screening/ToneCFParameters_For_Generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ratNeuroPixel\ClickTrainGeneration\Tone Screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6806EAF-9584-4927-B9AE-5306F2E305BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8610CC7-9BE5-44E8-BFB3-50A94C195920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,14 @@
   <si>
     <t>@Noise_DiffAtt_Gen</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanEEG</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -230,6 +238,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -510,7 +521,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -521,7 +532,7 @@
     <col min="4" max="4" width="19.21875" style="3" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
+    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
     <col min="12" max="12" width="45.77734375" style="4" customWidth="1"/>
@@ -552,7 +563,7 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -596,8 +607,8 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
@@ -640,7 +651,7 @@
       <c r="G3" s="2">
         <v>26</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>100</v>
       </c>
       <c r="I3" s="2">
@@ -673,10 +684,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>25</v>
@@ -699,6 +710,7 @@
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>

--- a/Tone Screening/ToneCFParameters_For_Generation.xlsx
+++ b/Tone Screening/ToneCFParameters_For_Generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ratNeuroPixel\ClickTrainGeneration\Tone Screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8610CC7-9BE5-44E8-BFB3-50A94C195920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECC9D7-4E83-455C-95B0-C69FCAF1A7D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,54 @@
   <si>
     <t>HumanEEG</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tone_LocalChange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230427</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalRatio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Tone_LocalChange_Gen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,9 +251,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -215,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -243,6 +300,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,12 +603,14 @@
     <col min="9" max="10" width="17.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
     <col min="12" max="12" width="45.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="21.44140625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="13" max="13" width="18.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="14"/>
+    <col min="15" max="16" width="15.5546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,11 +650,20 @@
       <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -625,11 +703,20 @@
       <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -669,11 +756,14 @@
       <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -704,19 +794,65 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="13"/>
+      <c r="Q4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>38400</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
@@ -725,7 +861,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>

--- a/Tone Screening/ToneCFParameters_For_Generation.xlsx
+++ b/Tone Screening/ToneCFParameters_For_Generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ratNeuroPixel\ClickTrainGeneration\Tone Screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECC9D7-4E83-455C-95B0-C69FCAF1A7D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51E262-AA73-47DA-AE40-EA31CEBF3321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>@Tone_LocalChange_Gen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230509</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,500</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,7 +613,7 @@
     <col min="12" max="12" width="45.77734375" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="14"/>
-    <col min="15" max="16" width="15.5546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="15.44140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="21.44140625" style="14" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
@@ -804,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>38400</v>
+        <v>384000</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
@@ -852,23 +860,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>384000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="Q6" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
